--- a/lipid droplet/11725__analysis_by_image.xlsx
+++ b/lipid droplet/11725__analysis_by_image.xlsx
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>653</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1415</v>
+        <v>1370</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>3590</v>
+        <v>3454</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>140</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2467</v>
       </c>
       <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2401</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>175</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
       <c r="G9" t="n">
-        <v>2241</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>521</v>
+        <v>644</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>1787</v>
+        <v>2286</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>1826</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="11">
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2166</v>
+        <v>6531</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>1968</v>
+        <v>4516</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>3829</v>
+        <v>3633</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -792,7 +792,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>602</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15">
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17">
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3423</v>
+        <v>3412</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2774</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4110</v>
+      </c>
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="C22" t="n">
-        <v>2173</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3621</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
       <c r="G22" t="n">
-        <v>589</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>1929</v>
+        <v>4917</v>
       </c>
       <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3192</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="E23" t="n">
-        <v>61</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
       <c r="G23" t="n">
-        <v>3161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>967</v>
+        <v>923</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>2493</v>
+        <v>2293</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>428</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -1077,22 +1077,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1614</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>514</v>
+      </c>
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="C26" t="n">
-        <v>1811</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>640</v>
-      </c>
-      <c r="F26" t="n">
-        <v>14</v>
-      </c>
       <c r="G26" t="n">
-        <v>710</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
         <v>1513</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>2435</v>
+        <v>2453</v>
       </c>
       <c r="D29" t="n">
         <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>1162</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="30">
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="n">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
@@ -1189,10 +1189,10 @@
         <v>194</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>989</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31">
@@ -1205,13 +1205,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>923</v>
+        <v>1133</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>5581</v>
+        <v>7555</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>5325</v>
+        <v>6385</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>2934</v>
+        <v>3341</v>
       </c>
       <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5984</v>
+      </c>
+      <c r="F33" t="n">
         <v>3</v>
       </c>
-      <c r="E33" t="n">
-        <v>5001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>7261</v>
+        <v>10919</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>7880</v>
+        <v>8921</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>218</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>5883</v>
+        <v>10597</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>11645</v>
+        <v>9607</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>414</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="36">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2749</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>3216</v>
+        <v>6229</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2842</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="37">
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>9083</v>
+        <v>10101</v>
       </c>
       <c r="D37" t="n">
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>6762</v>
+        <v>7849</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1377,22 +1377,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>5265</v>
+        <v>3812</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>1650</v>
+        <v>1203</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>1072</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="39">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>3502</v>
+        <v>2741</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>553</v>
+        <v>383</v>
       </c>
       <c r="F39" t="n">
         <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>507</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40">
@@ -1430,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>2555</v>
+        <v>2538</v>
       </c>
       <c r="D40" t="n">
         <v>4</v>
@@ -1439,10 +1439,10 @@
         <v>432</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
@@ -1452,22 +1452,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>2664</v>
+        <v>3048</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>1853</v>
+        <v>1524</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>96</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>3262</v>
+        <v>3231</v>
       </c>
       <c r="D42" t="n">
         <v>3</v>
@@ -1489,10 +1489,10 @@
         <v>1018</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>3400</v>
+        <v>4130</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>508</v>
+        <v>666</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>111</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5252</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8331</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
-        <v>5068</v>
+        <v>6117</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E45" t="n">
-        <v>6543</v>
+        <v>7632</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>9819</v>
+        <v>10558</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>6993</v>
+        <v>7560</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -1602,22 +1602,22 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2049</v>
+      </c>
+      <c r="F47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" t="n">
-        <v>1497</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1669</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>7570</v>
+        <v>7566</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>8227</v>
+        <v>8204</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50">
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>3921</v>
+        <v>3782</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1814,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>2705</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="57">
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="n">
-        <v>2434</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="58">
@@ -1883,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2209</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>120</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="59">
@@ -1927,22 +1927,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1518</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>1884</v>
+        <v>2896</v>
       </c>
       <c r="F60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G60" t="n">
-        <v>1302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61">
@@ -1952,22 +1952,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>1837</v>
+        <v>2533</v>
       </c>
       <c r="F61" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G61" t="n">
-        <v>1210</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="G63" t="n">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64">
@@ -2117,7 +2117,7 @@
         <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>741</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>305</v>
+        <v>470</v>
       </c>
       <c r="F69" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" t="n">
-        <v>2621</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="70">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
         <v>2</v>
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="D71" t="n">
         <v>3</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>

--- a/lipid droplet/11725__analysis_by_image.xlsx
+++ b/lipid droplet/11725__analysis_by_image.xlsx
@@ -514,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>628</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>145</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>109</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1370</v>
+        <v>2762</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>3454</v>
+        <v>1474</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>276</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2421</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>2467</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2401</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>644</v>
+        <v>3596</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>2286</v>
+        <v>1424</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>1324</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>6531</v>
+        <v>1342</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>4516</v>
+        <v>2314</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>3633</v>
+        <v>1439</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>2231</v>
+        <v>2198</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>104</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7971</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4013</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>616</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15">
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>152</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>484</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18">
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19">
@@ -930,19 +930,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1555</v>
+        <v>397</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1856</v>
+        <v>101</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>101</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>3412</v>
+        <v>970</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2421</v>
+        <v>470</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="22">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>2774</v>
+        <v>2965</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>4110</v>
+        <v>2634</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="23">
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4917</v>
+        <v>950</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>3192</v>
+        <v>758</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>923</v>
+        <v>3362</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2293</v>
+        <v>1293</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>628</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="25">
@@ -1052,22 +1052,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>1544</v>
+        <v>4014</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>1687</v>
+        <v>3323</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>42</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26">
@@ -1077,22 +1077,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>1614</v>
+        <v>1082</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>514</v>
+        <v>644</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>891</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="27">
@@ -1102,22 +1102,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>1513</v>
+        <v>1476</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>321</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="28">
@@ -1130,19 +1130,19 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>97</v>
+        <v>1633</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>144</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="29">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>2453</v>
+        <v>1205</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>1220</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="30">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1598</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1202,22 +1202,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>1133</v>
+        <v>1553</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>337</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>7555</v>
+        <v>2952</v>
       </c>
       <c r="D32" t="n">
         <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>6385</v>
+        <v>3147</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>86</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="33">
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>3341</v>
+        <v>6144</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>5984</v>
+        <v>9054</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
-        <v>151</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="34">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>10919</v>
+        <v>5301</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>8921</v>
+        <v>8592</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>134</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="35">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>10597</v>
+        <v>3988</v>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>9607</v>
+        <v>6591</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G35" t="n">
-        <v>2910</v>
+        <v>11028</v>
       </c>
     </row>
     <row r="36">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>2749</v>
+        <v>3098</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>6229</v>
+        <v>5549</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G36" t="n">
-        <v>2437</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="37">
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>10101</v>
+        <v>3185</v>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>7849</v>
+        <v>4439</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="38">
@@ -1377,22 +1377,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>3812</v>
+        <v>3308</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>1203</v>
+        <v>410</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G38" t="n">
-        <v>1429</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="39">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>2741</v>
+        <v>2899</v>
       </c>
       <c r="D39" t="n">
         <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>383</v>
+        <v>1114</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G39" t="n">
-        <v>543</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="40">
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>2538</v>
+        <v>1871</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>432</v>
+        <v>198</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>236</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="41">
@@ -1452,22 +1452,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>3048</v>
+        <v>3622</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>1524</v>
+        <v>2723</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G41" t="n">
-        <v>287</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="42">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="D42" t="n">
         <v>3</v>
@@ -1489,10 +1489,10 @@
         <v>1018</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G42" t="n">
-        <v>36</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="43">
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>4130</v>
+        <v>3675</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>666</v>
+        <v>538</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G43" t="n">
-        <v>209</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="44">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4760</v>
+      </c>
+      <c r="D44" t="n">
         <v>4</v>
       </c>
-      <c r="C44" t="n">
-        <v>5252</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2</v>
-      </c>
       <c r="E44" t="n">
-        <v>8331</v>
+        <v>9465</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G44" t="n">
-        <v>130</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="45">
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
-        <v>6117</v>
+        <v>4004</v>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7632</v>
+        <v>7630</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G45" t="n">
-        <v>208</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4329</v>
+      </c>
+      <c r="F46" t="n">
         <v>8</v>
       </c>
-      <c r="C46" t="n">
-        <v>10558</v>
-      </c>
-      <c r="D46" t="n">
-        <v>8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7560</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
       <c r="G46" t="n">
-        <v>34</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="47">
@@ -1602,22 +1602,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>2026</v>
+        <v>5226</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>2049</v>
+        <v>7681</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G47" t="n">
-        <v>35</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="48">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>475</v>
+        <v>3549</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>591</v>
+        <v>8757</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="49">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>7566</v>
+        <v>2331</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>8204</v>
+        <v>3484</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>192</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="50">
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>28</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51">
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>558</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53">
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>900</v>
+        <v>965</v>
       </c>
     </row>
     <row r="54">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>80</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55">
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>3782</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1814,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56">
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" t="n">
-        <v>1675</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="57">
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>2329</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="59">
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>1732</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="60">
@@ -1927,22 +1927,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>1518</v>
+        <v>3248</v>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>2896</v>
+        <v>818</v>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n">
-        <v>334</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="61">
@@ -1952,22 +1952,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>518</v>
+        <v>5129</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>2533</v>
+        <v>3002</v>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>514</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62">
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G63" t="n">
-        <v>277</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64">
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67" t="n">
-        <v>694</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>513</v>
+        <v>3885</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -2139,10 +2139,10 @@
         <v>5469</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G69" t="n">
-        <v>2456</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="70">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1243</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>88</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="71">
@@ -2205,19 +2205,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>802</v>
+        <v>42</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1873</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G71" t="n">
-        <v>145</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="72">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="73">
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>879</v>
+        <v>1822</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
